--- a/src/main/resources/template/excel/export/stockTakingDiffDetail.xlsx
+++ b/src/main/resources/template/excel/export/stockTakingDiffDetail.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -33,6 +33,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="P4")</t>
@@ -180,38 +181,38 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3+0)]</t>
+    <t>$[SUMPRODUCT(G3:G3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(H3+0)]</t>
+    <t>$[SUMPRODUCT(H3:H3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(I3+0)]</t>
+    <t>$[SUMPRODUCT(I3:I3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(M3+0)]</t>
+    <t>$[SUMPRODUCT(M3:M3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(N3+0)]</t>
+    <t>$[SUMPRODUCT(N3:N3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(O3+0)]</t>
+    <t>$[SUMPRODUCT(O3:O3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(P3+0)]</t>
+    <t>$[SUMPRODUCT(P3:P3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
@@ -227,12 +228,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -240,6 +243,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -247,11 +251,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -260,6 +266,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -656,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EO4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/template/excel/export/stockTakingDiffDetail.xlsx
+++ b/src/main/resources/template/excel/export/stockTakingDiffDetail.xlsx
@@ -181,31 +181,31 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3:G3+0)]</t>
+    <t>$[SUMPRODUCT(G3:G3:G3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(H3:H3+0)]</t>
+    <t>$[SUMPRODUCT(H3:H3:H3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(I3:I3+0)]</t>
+    <t>$[SUMPRODUCT(I3:I3:I3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(M3:M3+0)]</t>
+    <t>$[SUMPRODUCT(M3:M3:M3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(N3:N3+0)]</t>
+    <t>$[SUMPRODUCT(N3:N3:N3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(O3:O3+0)]</t>
+    <t>$[SUMPRODUCT(O3:O3:O3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(P3:P3+0)]</t>
+    <t>$[SUMPRODUCT(P3:P3:P3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +664,7 @@
   <dimension ref="A1:EO4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/template/excel/export/stockTakingDiffDetail.xlsx
+++ b/src/main/resources/template/excel/export/stockTakingDiffDetail.xlsx
@@ -357,7 +357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,6 +385,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,7 +670,7 @@
   <dimension ref="A1:EO4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1022,34 +1028,34 @@
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
